--- a/public/kabel.xlsx
+++ b/public/kabel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dokumen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B68B364D-83AE-458A-B089-44114C1742EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9E50028-62EA-49EB-8E87-EB4F784E3F6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{66996223-8659-4C34-B621-6474C0C093B6}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="13">
   <si>
     <t>merek</t>
   </si>
@@ -441,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3A6B5BE-80B6-4045-87F0-F21456A721CA}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -766,7 +766,7 @@
         <v>1257</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F15" s="3">
         <v>46016</v>
@@ -871,7 +871,7 @@
         <v>1333</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F20" s="3">
         <v>46016</v>
@@ -928,10 +928,10 @@
         <v>4</v>
       </c>
       <c r="C23" s="1">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="D23" s="4">
-        <v>203</v>
+        <v>80</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>7</v>
@@ -991,10 +991,10 @@
         <v>4</v>
       </c>
       <c r="C26" s="1">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="D26" s="4">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>7</v>
@@ -1012,10 +1012,10 @@
         <v>4</v>
       </c>
       <c r="C27" s="1">
-        <v>48</v>
-      </c>
-      <c r="D27" s="4">
-        <v>224</v>
+        <v>12</v>
+      </c>
+      <c r="D27" s="1">
+        <v>509</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>7</v>
@@ -1030,13 +1030,13 @@
         <v>KBL-000027</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C28" s="1">
         <v>48</v>
       </c>
       <c r="D28" s="4">
-        <v>334</v>
+        <v>642</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>7</v>
@@ -1051,39 +1051,18 @@
         <v>KBL-000028</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C29" s="1">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D29" s="4">
-        <v>80</v>
+        <v>1200</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F29" s="3">
-        <v>46016</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>KBL-000029</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30" s="1">
-        <v>24</v>
-      </c>
-      <c r="D30" s="4">
-        <v>700</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F30" s="3">
         <v>46016</v>
       </c>
     </row>
